--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_17-48.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_17-48.xlsx
@@ -32,6 +32,12 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -47,9 +53,6 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -74,6 +77,12 @@
     <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
   </si>
   <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -141,6 +150,12 @@
   </si>
   <si>
     <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -799,11 +814,11 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1">
@@ -811,7 +826,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B5" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -819,17 +834,17 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c t="s" r="H5" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -837,7 +852,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -845,17 +860,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -863,7 +878,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -871,17 +886,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -889,7 +904,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -897,17 +912,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -915,7 +930,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -923,17 +938,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -949,17 +964,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -975,17 +990,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -993,7 +1008,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1001,17 +1016,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1027,17 +1042,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1045,7 +1060,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1053,17 +1068,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1079,17 +1094,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1105,17 +1120,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1123,7 +1138,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1131,17 +1146,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1149,7 +1164,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1157,17 +1172,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1183,17 +1198,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1215,11 +1230,11 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1235,17 +1250,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1261,17 +1276,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>23.039999999999999</v>
+        <v>57</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1279,7 +1294,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1287,17 +1302,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1313,17 +1328,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>37.600000000000001</v>
+        <v>23.039999999999999</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1331,7 +1346,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1339,17 +1354,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1357,7 +1372,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1365,17 +1380,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>23</v>
+        <v>37.600000000000001</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1391,17 +1406,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1417,17 +1432,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1449,11 +1464,11 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1461,7 +1476,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1469,17 +1484,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1495,17 +1510,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>-96</v>
+        <v>192</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1527,11 +1542,11 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>-25</v>
+        <v>15</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1539,7 +1554,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1547,17 +1562,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1573,17 +1588,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>320</v>
+        <v>-96</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1605,11 +1620,11 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1625,17 +1640,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1643,7 +1658,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1657,11 +1672,11 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1669,7 +1684,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1677,17 +1692,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1695,7 +1710,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1703,51 +1718,129 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" ht="26.25" customHeight="1">
-      <c r="K40" s="10">
-        <v>2141.6399999999999</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="11">
-        <v>64</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c t="s" r="F41" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" ht="25.5" customHeight="1">
+      <c r="A40" s="6">
+        <v>37</v>
+      </c>
+      <c t="s" r="B40" s="7">
         <v>65</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13"/>
-      <c t="s" r="I41" s="14">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c t="s" r="H40" s="8">
+        <v>10</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9">
+        <v>20</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c t="s" r="N40" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" ht="24.75" customHeight="1">
+      <c r="A41" s="6">
+        <v>38</v>
+      </c>
+      <c t="s" r="B41" s="7">
         <v>66</v>
       </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c t="s" r="H41" s="8">
+        <v>17</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9">
+        <v>30</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c t="s" r="N41" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="6">
+        <v>39</v>
+      </c>
+      <c t="s" r="B42" s="7">
+        <v>67</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c t="s" r="H42" s="8">
+        <v>68</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9">
+        <v>65</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c t="s" r="N42" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" ht="25.5" customHeight="1">
+      <c r="K43" s="10">
+        <v>2277.6399999999999</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" ht="17.25" customHeight="1">
+      <c t="s" r="A44" s="11">
+        <v>69</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c t="s" r="F44" s="12">
+        <v>70</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13"/>
+      <c t="s" r="I44" s="14">
+        <v>71</v>
+      </c>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="128">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1863,10 +1956,19 @@
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="I44:N44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
